--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2870" windowWidth="10590" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="10590" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Data1</t>
   </si>
@@ -103,337 +103,37 @@
     <t>Data26</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Please verify The Mobile number.</t>
   </si>
   <si>
     <t>Current Password is Incorrect.</t>
   </si>
   <si>
-    <t>Snaptrude</t>
+    <t>Excepted text1</t>
   </si>
   <si>
-    <t>num1</t>
+    <t>Excepted text3</t>
   </si>
   <si>
-    <t>num2</t>
+    <t>Excepted text2</t>
   </si>
   <si>
-    <t>num3</t>
+    <t>Maruthi</t>
   </si>
   <si>
-    <t>num4</t>
+    <t>Maruti Suzuki Finance is an end to end digital car financing platform where the customer</t>
   </si>
   <si>
-    <t>num5</t>
+    <t>Maruti Suzuki has currently onboarded 24 Finance partners including all key private banks, PSU banks and NBFCs. Proceed further on your Smart Finance journey to get into the details and explore offers suitable for you.</t>
   </si>
   <si>
-    <t>num6</t>
+    <t>to submit a ticket</t>
   </si>
   <si>
-    <t>num7</t>
+    <t>Did you mean any of the following?</t>
   </si>
   <si>
-    <t>num8</t>
-  </si>
-  <si>
-    <t>num9</t>
-  </si>
-  <si>
-    <t>num10</t>
-  </si>
-  <si>
-    <t>-220</t>
-  </si>
-  <si>
-    <t>-160</t>
-  </si>
-  <si>
-    <t>-335</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>-230</t>
-  </si>
-  <si>
-    <t>Snaptrudelogin</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>test31@trackd.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
-    <t>lin1</t>
-  </si>
-  <si>
-    <t>lin2</t>
-  </si>
-  <si>
-    <t>lin3</t>
-  </si>
-  <si>
-    <t>lin4</t>
-  </si>
-  <si>
-    <t>lin5</t>
-  </si>
-  <si>
-    <t>lin6</t>
-  </si>
-  <si>
-    <t>lin7</t>
-  </si>
-  <si>
-    <t>lin8</t>
-  </si>
-  <si>
-    <t>-200</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>-75</t>
-  </si>
-  <si>
-    <t>Snaprectangle</t>
-  </si>
-  <si>
-    <t>Snaptriangle</t>
-  </si>
-  <si>
-    <t>line1</t>
-  </si>
-  <si>
-    <t>line2</t>
-  </si>
-  <si>
-    <t>line3</t>
-  </si>
-  <si>
-    <t>line4</t>
-  </si>
-  <si>
-    <t>line5</t>
-  </si>
-  <si>
-    <t>line6</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>Snapmeasure</t>
-  </si>
-  <si>
-    <t>start1</t>
-  </si>
-  <si>
-    <t>start2</t>
-  </si>
-  <si>
-    <t>endpoint1</t>
-  </si>
-  <si>
-    <t>Snaprotate</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>XPoint1</t>
-  </si>
-  <si>
-    <t>YPoint1</t>
-  </si>
-  <si>
-    <t>XPoint2</t>
-  </si>
-  <si>
-    <t>YPoint2</t>
-  </si>
-  <si>
-    <t>XPoint3</t>
-  </si>
-  <si>
-    <t>YPoint3</t>
-  </si>
-  <si>
-    <t>Xpoint4</t>
-  </si>
-  <si>
-    <t>YPoint4</t>
-  </si>
-  <si>
-    <t>Snapcircle</t>
-  </si>
-  <si>
-    <t>CircleX1</t>
-  </si>
-  <si>
-    <t>CircleY1</t>
-  </si>
-  <si>
-    <t>CircleX2</t>
-  </si>
-  <si>
-    <t>CircleY2</t>
-  </si>
-  <si>
-    <t>-105</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>-130</t>
-  </si>
-  <si>
-    <t>FlipX1</t>
-  </si>
-  <si>
-    <t>FlipY1</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>MoveX1</t>
-  </si>
-  <si>
-    <t>MoveY1</t>
-  </si>
-  <si>
-    <t>MoveX2</t>
-  </si>
-  <si>
-    <t>MoveY2</t>
-  </si>
-  <si>
-    <t>Snapmoveto</t>
-  </si>
-  <si>
-    <t>SnapFlip</t>
-  </si>
-  <si>
-    <t>Snapedit</t>
-  </si>
-  <si>
-    <t>VertexX1</t>
-  </si>
-  <si>
-    <t>VertexY1</t>
-  </si>
-  <si>
-    <t>-95</t>
-  </si>
-  <si>
-    <t>endpoint2</t>
-  </si>
-  <si>
-    <t>Point2</t>
-  </si>
-  <si>
-    <t>Team name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Tes</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>popupmessage</t>
-  </si>
-  <si>
-    <t>Team name too small</t>
-  </si>
-  <si>
-    <t>numbername</t>
-  </si>
-  <si>
-    <t>123test</t>
-  </si>
-  <si>
-    <t>popupmessage1</t>
-  </si>
-  <si>
-    <t>Team name cannot start a with number</t>
-  </si>
-  <si>
-    <t>specialname</t>
-  </si>
-  <si>
-    <t>@test</t>
-  </si>
-  <si>
-    <t>popupmessage2</t>
-  </si>
-  <si>
-    <t>Team name should not start with special character</t>
-  </si>
-  <si>
-    <t>Mail id</t>
-  </si>
-  <si>
-    <t>mail 1</t>
-  </si>
-  <si>
-    <t>mail 2</t>
-  </si>
-  <si>
-    <t>mail 3</t>
-  </si>
-  <si>
-    <t>test43@trackd.com</t>
-  </si>
-  <si>
-    <t>test42@trackd.com</t>
-  </si>
-  <si>
-    <t>test44@trackd.com</t>
-  </si>
-  <si>
-    <t>Newmail id</t>
-  </si>
-  <si>
-    <t>test51@trackd.com</t>
+    <t>Excepted text4</t>
   </si>
 </sst>
 </file>
@@ -838,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1153,17 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1266,7 +955,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1424,9 +1113,6 @@
     <xf numFmtId="49" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1448,37 +1134,37 @@
     <xf numFmtId="49" fontId="22" fillId="36" borderId="22" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="36" borderId="26" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="25" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="36" borderId="26" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="25" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="36" borderId="23" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,25 +1176,25 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,14 +1203,11 @@
     <xf numFmtId="49" fontId="21" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="34" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2100,7 +1783,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA18" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="27">
     <tableColumn id="1" name="TestCase Name" dataDxfId="25"/>
     <tableColumn id="2" name="Data1" dataDxfId="24"/>
@@ -2420,54 +2103,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD75"/>
+  <dimension ref="A1:XFD72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="33.26953125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.7265625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="8" customWidth="1"/>
-    <col min="15" max="15" width="22.453125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="19.7265625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" style="8" customWidth="1"/>
     <col min="17" max="17" width="21" style="8" customWidth="1"/>
-    <col min="18" max="18" width="25.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.26953125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="20.453125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="8" customWidth="1"/>
     <col min="21" max="21" width="38" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.7265625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="36.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.7265625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.7109375" style="8" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="8" customWidth="1"/>
     <col min="27" max="27" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.1796875" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.26953125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="13.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="11.1796875" style="8" customWidth="1"/>
-    <col min="38" max="38" width="19.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.1796875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="8" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="11.140625" style="8" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="8" customWidth="1"/>
     <col min="40" max="40" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="11.1796875" style="8" customWidth="1"/>
-    <col min="43" max="43" width="21.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.140625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27" style="8" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.81640625" style="8"/>
+    <col min="46" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="6" customFormat="1" ht="21" customHeight="1">
@@ -2555,18 +2238,20 @@
     </row>
     <row r="2" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
@@ -2590,18 +2275,20 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:16384" s="25" customFormat="1">
+    <row r="3" spans="1:16384" s="25" customFormat="1" ht="135">
       <c r="A3" s="50"/>
-      <c r="B3" s="50" t="s">
-        <v>50</v>
+      <c r="B3" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
       <c r="H3" s="23"/>
@@ -2626,39 +2313,17 @@
       <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" s="52"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
@@ -2678,36 +2343,16 @@
     </row>
     <row r="5" spans="1:16384" s="25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="53"/>
-      <c r="B5" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>47</v>
-      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
@@ -2726,33 +2371,15 @@
       <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:16384" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="3"/>
@@ -19131,30 +18758,14 @@
     </row>
     <row r="7" spans="1:16384" s="25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -19175,27 +18786,13 @@
       <c r="AA7" s="23"/>
     </row>
     <row r="8" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -19219,24 +18816,12 @@
     </row>
     <row r="9" spans="1:16384" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="32"/>
@@ -19259,21 +18844,11 @@
       <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>112</v>
-      </c>
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="45"/>
       <c r="G10" s="46"/>
       <c r="H10" s="47"/>
@@ -19299,18 +18874,10 @@
     </row>
     <row r="11" spans="1:16384" s="25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="36"/>
-      <c r="B11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>44</v>
-      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="35"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
@@ -19333,2015 +18900,1788 @@
       <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
     </row>
     <row r="13" spans="1:16384" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:16384">
-      <c r="A14" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
     </row>
     <row r="15" spans="1:16384">
-      <c r="A15" s="81"/>
-      <c r="B15" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
     </row>
     <row r="16" spans="1:16384">
-      <c r="A16" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="81"/>
-      <c r="B17" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="50"/>
-      <c r="B19" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
+    <row r="19" spans="1:27" s="25" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="32"/>
+      <c r="E19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
     </row>
-    <row r="21" spans="1:27" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
+    <row r="21" spans="1:27">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
     </row>
-    <row r="23" spans="1:27" ht="43.5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
+    <row r="23" spans="1:27">
+      <c r="A23" s="52"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="50"/>
-      <c r="B25" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="52"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="57"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="53"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="47"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="50"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="56"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="52"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="57"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="56"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="53"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="47"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="57"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="63"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="67"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="63"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="72"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="56"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="53"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="47"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="57"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="63"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
     </row>
-    <row r="46" spans="1:27">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
+    <row r="46" spans="1:27" ht="23.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="75"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="60"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="56"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="47"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
     </row>
-    <row r="49" spans="1:27" ht="21.5">
-      <c r="A49" s="53"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
+    <row r="49" spans="1:27">
+      <c r="A49" s="47"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="52"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="57"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="53"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="47"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="56"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="48"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="48"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="52"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="57"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="53"/>
-      <c r="AA57" s="53"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="48"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="47"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="50"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="56"/>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="48"/>
-      <c r="Y60" s="48"/>
-      <c r="Z60" s="48"/>
-      <c r="AA60" s="48"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="50"/>
-      <c r="Z61" s="50"/>
-      <c r="AA61" s="50"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="52"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="57"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="48"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="48"/>
+      <c r="Z63" s="48"/>
+      <c r="AA63" s="48"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="47"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
-      <c r="AA64" s="57"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="50"/>
-      <c r="W65" s="50"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="56"/>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="48"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
     </row>
     <row r="67" spans="1:27">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50"/>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="50"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="56"/>
     </row>
     <row r="68" spans="1:27">
-      <c r="A68" s="52"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="57"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="53"/>
-      <c r="Y69" s="53"/>
-      <c r="Z69" s="53"/>
-      <c r="AA69" s="53"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="47"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="57"/>
-      <c r="V70" s="57"/>
-      <c r="W70" s="57"/>
-      <c r="X70" s="57"/>
-      <c r="Y70" s="57"/>
-      <c r="Z70" s="57"/>
-      <c r="AA70" s="57"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="50"/>
-      <c r="X71" s="50"/>
-      <c r="Y71" s="50"/>
-      <c r="Z71" s="50"/>
-      <c r="AA71" s="50"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="56"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="48"/>
-      <c r="R72" s="48"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="48"/>
-      <c r="W72" s="48"/>
-      <c r="X72" s="48"/>
-      <c r="Y72" s="48"/>
-      <c r="Z72" s="48"/>
-      <c r="AA72" s="48"/>
-    </row>
-    <row r="73" spans="1:27">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-    </row>
-    <row r="74" spans="1:27">
-      <c r="A74" s="52"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="57"/>
-    </row>
-    <row r="75" spans="1:27">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53"/>
-      <c r="W75" s="53"/>
-      <c r="X75" s="53"/>
-      <c r="Y75" s="53"/>
-      <c r="Z75" s="53"/>
-      <c r="AA75" s="53"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="53"/>
+      <c r="X72" s="53"/>
+      <c r="Y72" s="53"/>
+      <c r="Z72" s="53"/>
+      <c r="AA72" s="53"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 N11 E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 N11">
       <formula1>"Not certified,Certified,Expert,Master"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-    <hyperlink ref="C25" r:id="rId2"/>
-    <hyperlink ref="D25" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -21359,10 +20699,10 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="92.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="92.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="27" customFormat="1"/>
